--- a/Bot/request.xlsx
+++ b/Bot/request.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:H17"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -889,7 +889,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44997.91954919724</v>
+        <v>44997.91954920139</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -912,6 +912,39 @@
         </is>
       </c>
       <c r="H17" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>44998.5116605452</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>759572442</v>
       </c>
     </row>

--- a/Bot/request.xlsx
+++ b/Bot/request.xlsx
@@ -1,34 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,14 +49,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -343,36 +414,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>44998.64536382397</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Військовослужбовець</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Нрпп</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bot/request.xlsx
+++ b/Bot/request.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:H2"/>
+  <dimension ref="A2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,34 +429,413 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44998.64536382397</v>
+        <v>44998.86203012731</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>📦Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>📦Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>kj</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>44998.87224326389</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>📦Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>44998.8723325463</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>🪖Допомога для ЗСУ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>44998.87255184028</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>📦Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>44998.8726127662</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Внутрішньо переміщена особа</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>44998.87557256944</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>📦Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Гумонітарка</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>44998.87565341435</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Внутрішньо переміщена особа</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>аіва</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>44998.87571487269</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Людина, яка постраждала від війни</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>аіва</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>44998.8772365625</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>📦Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>44998.8777909838</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>👨‍⚖️Юридична консультація</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Військовослужбовець</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Нрпп</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Артём</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Wand1sh</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>gfg</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>44998.88148813658</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>📦Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>yue</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>44998.88167136574</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>44998.88509947916</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Внутрішньо переміщена особа</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>44998.88513299638</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>📦Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>759572442</v>
       </c>
     </row>

--- a/Bot/request.xlsx
+++ b/Bot/request.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:H15"/>
+  <dimension ref="A2:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,7 +813,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44998.88513299638</v>
+        <v>44998.88513299768</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -837,6 +837,166 @@
       </c>
       <c r="H15" t="n">
         <v>759572442</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>44998.89859293981</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>🪖Допомога для ЗСУ</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>м</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>44998.89932792824</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Військовослужбовець</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ырвпрвпрвп</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Павел</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Pavl00</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>402411612</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>44998.8994409838</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Військовослужбовець</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>79521ываипваипвыа—=-</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Павел</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Pavl00</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>402411612</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>44998.89997103009</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>🙏Реалізувати Вашу мрію</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>крврервкавпрвкеркверп</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Павел</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Pavl00</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>402411612</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>44998.90046387062</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>виывптисмтсаптавт</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Павел</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Pavl00</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>402411612</v>
       </c>
     </row>
   </sheetData>

--- a/Bot/request.xlsx
+++ b/Bot/request.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:H20"/>
+  <dimension ref="A2:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,7 +968,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44998.90046387062</v>
+        <v>44998.90046386574</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -997,6 +997,535 @@
       </c>
       <c r="H20" t="n">
         <v>402411612</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>44998.91440104166</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>🪖Допомога для ЗСУ</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>44998.91492340278</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>🪖Допомога для ЗСУ</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>44998.91531474537</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>🙏Реалізувати Вашу мрію</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>44998.91594527777</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>🪖Допомога для ЗСУ</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>44998.91638252315</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>🙏Реалізувати Вашу мрію</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>44998.91652778936</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>🙏Реалізувати Вашу мрію</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>44998.91805399305</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Людина, яка постраждала від війни</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>44998.91810487268</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>📦Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>44998.91957494213</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>44998.91974137731</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>📦Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>44998.92001030093</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>🪖Допомога для ЗСУ</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>44998.92073444444</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Людина, яка постраждала від війни</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>t12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>44998.920903125</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>📦Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>44998.92302215278</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Військовослужбовець</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>44998.92317681713</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>📦Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>44998.92568274306</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Людина, яка постраждала від війни</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>RoboCop</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5209787710</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>44998.92572819444</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>📦Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>RoboCop</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5209787710</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>44998.9258439141</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>📦Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>RoboCop</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5209787710</v>
       </c>
     </row>
   </sheetData>

--- a/Bot/request.xlsx
+++ b/Bot/request.xlsx
@@ -1,37 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>yest_datetime var_button_legal var_button message.text first_name last_name username chat.id</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,89 +54,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -169,7 +111,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -241,7 +183,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -414,221 +356,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>44998.94985081018</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>👨‍⚖️Юридична консультація</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Людина, яка постраждала від війни</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>RoboCop</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5209787710</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>44998.94989650463</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>📦Гуманітарна допомога</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>RoboCop</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5209787710</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>44998.95212821759</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>👨‍⚖️Юридична консультація</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Внутрішньо переміщена особа</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>RoboCop</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5209787710</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>44998.95217768518</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>📦Гуманітарна допомога</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>RoboCop</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5209787710</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>44998.95226375</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>🪖Допомога для ЗСУ</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>RoboCop</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5209787710</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>44998.95307983796</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>📦Гуманітарна допомога</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>RoboCop</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5209787710</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>44998.95502685185</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>👨‍⚖️Юридична консультація</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Людина, яка постраждала від війни</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>RoboCop</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5209787710</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>44998.95510102206</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>📦Гуманітарна допомога</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Людина, яка постраждала від війни</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>RoboCop</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5209787710</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -637,36 +374,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bot/request.xlsx
+++ b/Bot/request.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,21 +11,13 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>yest_datetime var_button_legal var_button message.text first_name last_name username chat.id</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,22 +50,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -111,7 +98,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -183,7 +170,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -356,42 +343,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bot/request.xlsx
+++ b/Bot/request.xlsx
@@ -1,34 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,14 +49,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -343,36 +414,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>45004.4052916088</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>📦Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45004.40806886574</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45004.41937739583</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>🙏Реалізувати Вашу мрію</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45006.74557706019</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>📦Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>i don't now</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Павел</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pavl00</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>402411612</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>45006.74620570602</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>🙏Реалізувати Вашу мрію</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>🙏Допомогти проекту</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Павел</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pavl00</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>402411612</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45006.74930787037</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Павел</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pavl00</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>402411612</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>45006.75876607639</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>📦Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>45007.45198245471</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Внутрішньо переміщена особа</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>л</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
